--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
@@ -91,244 +94,262 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>last</t>
+    <t>long</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -337,16 +358,7 @@
     <t>buy</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>much</t>
   </si>
   <si>
     <t>product</t>
@@ -710,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.956989247311828</v>
@@ -829,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.725</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6296296296296297</v>
+        <v>0.725</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3875968992248062</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8653250773993808</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.38</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3773584905660378</v>
+        <v>0.36</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.696969696969697</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3737373737373738</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3205128205128205</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.6883116883116883</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2205882352941176</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1197,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.688135593220339</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1221,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1949152542372881</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1247,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L12">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L12">
-        <v>49</v>
-      </c>
       <c r="M12">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1271,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.145945945945946</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,64 +1341,88 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.07731958762886598</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>163</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>0.06</v>
-      </c>
-      <c r="F14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>179</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.6619718309859155</v>
-      </c>
-      <c r="L14">
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.08717948717948718</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>178</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.6438356164383562</v>
+      </c>
+      <c r="L15">
         <v>47</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>47</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.6468699839486356</v>
-      </c>
-      <c r="L15">
-        <v>806</v>
-      </c>
-      <c r="M15">
-        <v>806</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1397,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.6428571428571429</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L19">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.5681818181818182</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.5416666666666666</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,15 +1615,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.546875</v>
       </c>
       <c r="L23">
         <v>35</v>
@@ -1605,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5301204819277109</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,15 +1693,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5131578947368421</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
         <v>39</v>
@@ -1683,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1709,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.51</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4791666666666667</v>
+        <v>0.51</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4603174603174603</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1787,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4385964912280702</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1813,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4156626506024096</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4102564102564102</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4044117647058824</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L35">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="M35">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>243</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3813229571984436</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3692307692307693</v>
+        <v>0.4124513618677043</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3603603603603603</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.3580246913580247</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.3529411764705883</v>
+        <v>0.3848039215686275</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.3525179856115108</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L41">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2073,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3465753424657534</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L42">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2099,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>477</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3278688524590164</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2125,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3265306122448979</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2151,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3061224489795918</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2177,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.3007518796992481</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2203,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.2976190476190476</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2229,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>59</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.2870813397129187</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L48">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2255,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.2857142857142857</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2281,21 +2317,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.2763157894736842</v>
+        <v>0.3</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2307,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.2741935483870968</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2333,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.2702702702702703</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2359,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.2592592592592592</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2385,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.2583423035522067</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L54">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="M54">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2411,21 +2447,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>689</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.2574257425742574</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2437,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>75</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.2516556291390729</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2463,21 +2499,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>113</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2489,21 +2525,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.2357615894039735</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L58">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2515,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>577</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K59">
-        <v>0.2352941176470588</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2541,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>52</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K60">
-        <v>0.1971830985915493</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L60">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M60">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="N60">
         <v>0.99</v>
@@ -2567,21 +2603,21 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>0.1964285714285714</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>0.96</v>
@@ -2593,47 +2629,47 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K62">
-        <v>0.1897018970189702</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L62">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>299</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K63">
-        <v>0.1880877742946709</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L63">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2645,47 +2681,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>259</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>0.1812080536912752</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L64">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M64">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K65">
-        <v>0.1776315789473684</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L65">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2697,21 +2733,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>375</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>0.1739130434782609</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2723,73 +2759,73 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67">
-        <v>0.1707317073170732</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>0.1575178997613365</v>
+        <v>0.1626373626373626</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M68">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69">
-        <v>0.1557377049180328</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2801,21 +2837,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70">
-        <v>0.1555555555555556</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="L70">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M70">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2827,21 +2863,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K71">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2853,21 +2889,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>0.1523809523809524</v>
+        <v>0.15</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2879,12 +2915,12 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>89</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K73">
         <v>0.1435643564356436</v>
@@ -2910,33 +2946,33 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K74">
-        <v>0.1338199513381995</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="L74">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M74">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K75">
         <v>0.1299435028248588</v>
@@ -2962,16 +2998,16 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K76">
-        <v>0.1291512915129151</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2983,21 +3019,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K77">
-        <v>0.1272727272727273</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L77">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3009,21 +3045,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>384</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K78">
-        <v>0.1230769230769231</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3035,21 +3071,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>114</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K79">
-        <v>0.1217948717948718</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3061,21 +3097,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>137</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K80">
-        <v>0.1092436974789916</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3087,47 +3123,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>212</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K81">
-        <v>0.09278350515463918</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L81">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>264</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K82">
-        <v>0.09235074626865672</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L82">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3139,21 +3175,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>973</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K83">
-        <v>0.09202453987730061</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3165,73 +3201,73 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K84">
-        <v>0.08743169398907104</v>
+        <v>0.08691588785046729</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M84">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>334</v>
+        <v>977</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K85">
-        <v>0.07471264367816093</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L85">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>644</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K86">
-        <v>0.0625</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3243,73 +3279,73 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K87">
-        <v>0.06168549087749783</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L87">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N87">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1080</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K88">
-        <v>0.06091370558375635</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="L88">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K89">
-        <v>0.06048387096774194</v>
+        <v>0.0625</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3321,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K90">
-        <v>0.05740740740740741</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L90">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M90">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N90">
         <v>0.9399999999999999</v>
@@ -3347,85 +3383,163 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K91">
-        <v>0.04634146341463415</v>
+        <v>0.05873925501432665</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N91">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>391</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K92">
-        <v>0.04606525911708254</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="L92">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K93">
-        <v>0.03038309114927345</v>
+        <v>0.05290546400693842</v>
       </c>
       <c r="L93">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M93">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N93">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O93">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K94">
+        <v>0.04834605597964377</v>
+      </c>
+      <c r="L94">
+        <v>19</v>
+      </c>
+      <c r="M94">
+        <v>20</v>
+      </c>
+      <c r="N94">
+        <v>0.95</v>
+      </c>
+      <c r="O94">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K95">
+        <v>0.04120879120879121</v>
+      </c>
+      <c r="L95">
+        <v>15</v>
+      </c>
+      <c r="M95">
+        <v>16</v>
+      </c>
+      <c r="N95">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O95">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96">
+        <v>0.02770448548812665</v>
+      </c>
+      <c r="L96">
+        <v>21</v>
+      </c>
+      <c r="M96">
+        <v>30</v>
+      </c>
+      <c r="N96">
         <v>0.7</v>
       </c>
-      <c r="O93">
+      <c r="O96">
         <v>0.3</v>
       </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>734</v>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
